--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC6_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC6_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3030361939491051</v>
+        <v>0.3149409558538669</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3030361939491051, 'ngram_match_score': 0.09147199743600787, 'weighted_ngram_match_score': 0.1493005608343487, 'syntax_match_score': 0.6094674556213018, 'dataflow_match_score': 0.3619047619047619}</t>
+          <t>{'codebleu': 0.31494095585386694, 'ngram_match_score': 0.09147199743600787, 'weighted_ngram_match_score': 0.1493005608343487, 'syntax_match_score': 0.6094674556213018, 'dataflow_match_score': 0.4095238095238095}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
